--- a/all_annotated/AAPL_Q2_2009_2.xlsx
+++ b/all_annotated/AAPL_Q2_2009_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GT Classes\Fall 2023\VIP\Annotated\Uploaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A67749D-8873-4E2B-96D3-1D52235F555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E217E-D6E6-460F-96A6-5EE8EC48CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Asker</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>On – okay, let me just comment on BRIC in general. We now have of the four BRIC countries, Brazil, Russia, India, and China, we have three of those up and we have 8,000 store counts in those three selling the iPhones and we feel very good about that and we’re putting a lot of energy in growing those. China, we are not in yet. We would like to be in China within the next year and are currently working on that. But I have got nothing specific to announce today on this.</t>
-  </si>
-  <si>
-    <t>Okay. And on Steve Jobs? I will let Peter make a comment there.</t>
-  </si>
-  <si>
-    <t>Gene, what is your question?</t>
   </si>
   <si>
     <t>Any update regarding Steve Jobs and his return?</t>
@@ -637,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,59 +1108,59 @@
         <v>44</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -1184,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>2</v>
@@ -1196,9 +1190,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1216,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <v>2</v>
@@ -1228,41 +1222,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="288" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -1277,59 +1271,59 @@
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="216" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
@@ -1347,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -1356,41 +1350,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -1402,10 +1396,10 @@
         <v>66</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1417,47 +1411,47 @@
         <v>2</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="216" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>70</v>
@@ -1469,24 +1463,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1504,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -1516,73 +1510,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="360" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="360" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -1597,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
         <v>2</v>
@@ -1612,12 +1606,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>80</v>
@@ -1629,10 +1623,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
         <v>2</v>
@@ -1641,38 +1635,6 @@
         <v>2</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>2</v>
-      </c>
-      <c r="I32" s="2">
-        <v>2</v>
-      </c>
-      <c r="J32" s="2">
         <v>2</v>
       </c>
     </row>
